--- a/medicine/Psychotrope/Château_de_Chasselas/Château_de_Chasselas.xlsx
+++ b/medicine/Psychotrope/Château_de_Chasselas/Château_de_Chasselas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chasselas</t>
+          <t>Château_de_Chasselas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Chasselas est situé sur la commune de Chasselas en Saône-et-Loire, à flanc de pente. Il s'articule autour d'une vaste cour d'honneur flanquée de trois tours en poivrières recouvertes de tuiles vernissées. Ce domaine viticole de 12 hectares possède un caveau de dégustation ouvert toute l'année.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chasselas</t>
+          <t>Château_de_Chasselas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les bâtiments entourent une cour rectangulaire ouverte au nord par un étroit passage aménagé entre des communs. Le corps de logis, à l'est, date du XVIe siècle. Une tour circulaire se dresse à proximité, à l'angle du potager. Une seconde tour flanque l'angle nord-ouest. Elle est reliée à une troisième tour par des constructions à usage agricole. Le logis principal, qui date de la fin du XVIIIe siècle, est situé au sud. Il comporte un corps central entre deux ailes en retour d'équerre.
 Le château appartient à la Société civile agricole de Chasselas.
-Il fait l’objet d’une inscription au titre des monuments historiques depuis le 5 juillet 1979[1].
+Il fait l’objet d’une inscription au titre des monuments historiques depuis le 5 juillet 1979.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Chasselas</t>
+          <t>Château_de_Chasselas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>début XIIIe siècle : terre possédée par la famille de Chasselas
 XVe siècle : possession des du Roux, mentionnés de 1485 à 1591; la dernière de la lignée, Judith du Roux, dame de Chasselas et de Pouilly, épouse successivement Lyonnet de Challes, huguenot, décapité pour banditisme à Trévoux, et Philibert de Bellecombe, seigneur de Vinzelles
@@ -555,10 +571,44 @@
 1727 : ce dernier, ruiné, vend la propriété à Laurent Fayard
 1756 : endetté à son tour, Laurent Fayard cède le château à Laurent de La Fond de La Rolle
 1774 : à nouveau, le domaine doit être abandonné à un créancier, Étienne Cellard d'Estours, dont les armes se composent de trois tours
-1789 : le fils du précédent ne peut empêcher le pillage[2] et la démolition d'une tour, mais parvient à conserver le reste.
-1971 : M. Reme et son épouse, née de Cuverville (armoiries sur l'oriflamme d'une des tours), rachètent le Château à l'abandon et mettent toute leur énergie pour le restaurer
-Seigneurs et propriétaires successifs
-1325 Guillaume de Chasselas, seigneur de Chasselas.
+1789 : le fils du précédent ne peut empêcher le pillage et la démolition d'une tour, mais parvient à conserver le reste.
+1971 : M. Reme et son épouse, née de Cuverville (armoiries sur l'oriflamme d'une des tours), rachètent le Château à l'abandon et mettent toute leur énergie pour le restaurer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Château_de_Chasselas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%A2teau_de_Chasselas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seigneurs et propriétaires successifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1325 Guillaume de Chasselas, seigneur de Chasselas.
 1485 Benoît du Roux, écuyer, seigneur de Chasselas.
 1564 Judith du Roux, dame de Chasselas et de Pouilly.
 1580 Lyonnet de Challes, seigneur de Chasselas.
